--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,109 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0591</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="E2">
-        <v>-0.0552</v>
+        <v>0.0898</v>
       </c>
       <c r="G2">
-        <v>-0.3811074918566775</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.3811074918566775</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6297082164670315</v>
+        <v>0.84</v>
       </c>
       <c r="J2">
-        <v>0.5944923067309605</v>
+        <v>0.8387917808219177</v>
       </c>
       <c r="K2">
-        <v>2.96</v>
+        <v>14.6</v>
       </c>
       <c r="L2">
-        <v>0.4820846905537459</v>
+        <v>0.8342857142857143</v>
       </c>
       <c r="M2">
-        <v>4.505</v>
+        <v>4.52</v>
       </c>
       <c r="N2">
-        <v>0.04306471656629385</v>
+        <v>0.02574031890660592</v>
       </c>
       <c r="O2">
-        <v>1.521959459459459</v>
+        <v>0.3095890410958904</v>
       </c>
       <c r="P2">
-        <v>3.88</v>
+        <v>4.52</v>
       </c>
       <c r="Q2">
-        <v>0.03709014434566485</v>
+        <v>0.02574031890660592</v>
       </c>
       <c r="R2">
-        <v>1.310810810810811</v>
+        <v>0.3095890410958904</v>
       </c>
       <c r="S2">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.1387347391786903</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2.053</v>
+        <v>1.7</v>
       </c>
       <c r="V2">
-        <v>0.01962527483032215</v>
+        <v>0.009681093394077449</v>
       </c>
       <c r="W2">
-        <v>-0.1743205719574765</v>
+        <v>0.1546610169491525</v>
       </c>
       <c r="X2">
-        <v>0.05519499856000116</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y2">
-        <v>-0.2295155705174776</v>
+        <v>0.1194155207788488</v>
       </c>
       <c r="Z2">
-        <v>0.0707055929593363</v>
+        <v>0.1893324678134805</v>
       </c>
       <c r="AA2">
-        <v>-0.1215572070951094</v>
+        <v>0.1588105178446777</v>
       </c>
       <c r="AB2">
-        <v>0.05364179173344755</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC2">
-        <v>-0.1751989988285569</v>
+        <v>0.1235650216743739</v>
       </c>
       <c r="AD2">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.05295775446213564</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.452957754462135</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.6000422455378644</v>
+        <v>-1.7</v>
       </c>
       <c r="AH2">
-        <v>0.01369901222089018</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01459189108397279</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.005769084600095629</v>
+        <v>-0.009775733179988498</v>
       </c>
       <c r="AK2">
-        <v>-0.006153019949502683</v>
+        <v>-0.01715438950554995</v>
       </c>
       <c r="AL2">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.183</v>
-      </c>
-      <c r="AN2">
-        <v>-0.60790273556231</v>
-      </c>
-      <c r="AO2">
-        <v>20.98360655737705</v>
-      </c>
-      <c r="AP2">
-        <v>0.2605480875110137</v>
-      </c>
-      <c r="AQ2">
-        <v>20.98360655737705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -725,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0591</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="E3">
-        <v>-0.0552</v>
+        <v>0.0898</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,67 +725,67 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7956298200514139</v>
+        <v>0.84</v>
       </c>
       <c r="J3">
-        <v>0.7066399444437675</v>
+        <v>0.8387917808219177</v>
       </c>
       <c r="K3">
-        <v>5.62</v>
+        <v>14.6</v>
       </c>
       <c r="L3">
-        <v>0.7223650385604113</v>
+        <v>0.8342857142857143</v>
       </c>
       <c r="M3">
-        <v>4.505</v>
+        <v>4.52</v>
       </c>
       <c r="N3">
-        <v>0.04390838206627681</v>
+        <v>0.02574031890660592</v>
       </c>
       <c r="O3">
-        <v>0.8016014234875445</v>
+        <v>0.3095890410958904</v>
       </c>
       <c r="P3">
-        <v>3.88</v>
+        <v>4.52</v>
       </c>
       <c r="Q3">
-        <v>0.03781676413255361</v>
+        <v>0.02574031890660592</v>
       </c>
       <c r="R3">
-        <v>0.6903914590747331</v>
+        <v>0.3095890410958904</v>
       </c>
       <c r="S3">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1387347391786903</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.97</v>
+        <v>1.7</v>
       </c>
       <c r="V3">
-        <v>0.01920077972709552</v>
+        <v>0.009681093394077449</v>
       </c>
       <c r="W3">
-        <v>0.06828675577156744</v>
+        <v>0.1546610169491525</v>
       </c>
       <c r="X3">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y3">
-        <v>0.02052453843494698</v>
+        <v>0.1194155207788488</v>
       </c>
       <c r="Z3">
-        <v>0.09798488664987406</v>
+        <v>0.1893324678134805</v>
       </c>
       <c r="AA3">
-        <v>0.06924003485859587</v>
+        <v>0.1588105178446777</v>
       </c>
       <c r="AB3">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC3">
-        <v>0.0214778175219754</v>
+        <v>0.1235650216743739</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-1.97</v>
+        <v>-1.7</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,141 +806,16 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.01957666699791315</v>
+        <v>-0.009775733179988498</v>
       </c>
       <c r="AK3">
-        <v>-0.02131342637671751</v>
+        <v>-0.01715438950554995</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Powerhouse Ventures Limited (ASX:PVL)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>1.426829268292683</v>
-      </c>
-      <c r="H4">
-        <v>1.426829268292683</v>
-      </c>
-      <c r="I4">
-        <v>1.416824116397821</v>
-      </c>
-      <c r="J4">
-        <v>1.416824116397821</v>
-      </c>
-      <c r="K4">
-        <v>-2.66</v>
-      </c>
-      <c r="L4">
-        <v>1.621951219512195</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.083</v>
-      </c>
-      <c r="V4">
-        <v>0.04129353233830847</v>
-      </c>
-      <c r="W4">
-        <v>-0.4169278996865204</v>
-      </c>
-      <c r="X4">
-        <v>0.06262777978338185</v>
-      </c>
-      <c r="Y4">
-        <v>-0.4795556794699022</v>
-      </c>
-      <c r="Z4">
-        <v>-0.2204609911941324</v>
-      </c>
-      <c r="AA4">
-        <v>-0.3123544490488146</v>
-      </c>
-      <c r="AB4">
-        <v>0.05952136613027464</v>
-      </c>
-      <c r="AC4">
-        <v>-0.3718758151790892</v>
-      </c>
-      <c r="AD4">
-        <v>1.4</v>
-      </c>
-      <c r="AE4">
-        <v>0.05295775446213564</v>
-      </c>
-      <c r="AF4">
-        <v>1.452957754462135</v>
-      </c>
-      <c r="AG4">
-        <v>1.369957754462136</v>
-      </c>
-      <c r="AH4">
-        <v>0.419571319514352</v>
-      </c>
-      <c r="AI4">
-        <v>0.2808756273350252</v>
-      </c>
-      <c r="AJ4">
-        <v>0.4053180110471948</v>
-      </c>
-      <c r="AK4">
-        <v>0.2691491404346442</v>
-      </c>
-      <c r="AL4">
-        <v>0.183</v>
-      </c>
-      <c r="AM4">
-        <v>0.183</v>
-      </c>
-      <c r="AN4">
-        <v>-0.60790273556231</v>
-      </c>
-      <c r="AO4">
-        <v>-12.84153005464481</v>
-      </c>
-      <c r="AP4">
-        <v>-0.5948579046730941</v>
-      </c>
-      <c r="AQ4">
-        <v>-12.84153005464481</v>
       </c>
     </row>
   </sheetData>
